--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/WithHoldingTaxCertifcate.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/WithHoldingTaxCertifcate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-71620\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-10192020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
   <si>
     <t>Case</t>
   </si>
   <si>
-    <t>As a user I want to verify Withholding Tax certificate Request</t>
-  </si>
-  <si>
     <t>for_account</t>
   </si>
   <si>
@@ -93,6 +90,90 @@
   </si>
   <si>
     <t>Select L.TO_DATE from dc_transaction l where L.CUSTOMER_INFO_ID = (Select CUSTOMER_INFO_ID from dc_customer_info k where K.CUSTOMER_NAME = '{customer_name}'</t>
+  </si>
+  <si>
+    <t>06947900309303</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>6/1/2019</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>9/1/2020</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>8/2/2020</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8/3/2021</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>9/30/2019</t>
+  </si>
+  <si>
+    <t>Sea</t>
+  </si>
+  <si>
+    <t>9/13/2020</t>
+  </si>
+  <si>
+    <t>13/1/2020</t>
+  </si>
+  <si>
+    <t>9/40/2019</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>23087900855910</t>
+  </si>
+  <si>
+    <t>When FCY Acc is selected WithHolding_Tax_FCY</t>
+  </si>
+  <si>
+    <t>As a user when From to date is entered Date WithHolding_Tax_Normal</t>
+  </si>
+  <si>
+    <t>As a user when invalid to date is entered Month WithHolding_Tax_Normal</t>
+  </si>
+  <si>
+    <t>As a user when From date is greater than to date WithHolding_Tax_Normal</t>
+  </si>
+  <si>
+    <t>As a user when duration is 1 month WithHolding_Tax_Normal</t>
+  </si>
+  <si>
+    <t>As a user when Invalid To Date is selected WithHolding_Tax_Normal</t>
+  </si>
+  <si>
+    <t>As a user when Invalid From Date is selected WithHolding_Tax_Normal</t>
+  </si>
+  <si>
+    <t>As a user I want to verify Withholding Tax certificate Request WithHolding_Tax_Normal</t>
   </si>
 </sst>
 </file>
@@ -411,16 +492,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
@@ -428,7 +509,7 @@
     <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="156.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="165.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
@@ -439,84 +520,395 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1">
         <v>2020</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="I3" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2020</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
